--- a/CUS_Release_Notes_8910_MODULE_V1_3.xlsx
+++ b/CUS_Release_Notes_8910_MODULE_V1_3.xlsx
@@ -5,41 +5,43 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.1.110\Hudson\ShareData\CSDataRelease\Test_Products_Library\8910_MODULE_V1_3\8910_MODULE_V1_3_W20.32.2\CUS_Release_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.1.110\Hudson\ShareData\CSDataRelease\Test_Products_Library\8910_MODULE_V1_3\8910_MODULE_V1_3_W20.35.2\CUS_Release_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9915"/>
   </bookViews>
   <sheets>
-    <sheet name="W20.32.2" sheetId="21" r:id="rId1"/>
-    <sheet name="W20.31.3" sheetId="20" r:id="rId2"/>
-    <sheet name="W20.30.1" sheetId="19" r:id="rId3"/>
-    <sheet name="W20.29.1" sheetId="18" r:id="rId4"/>
-    <sheet name="W20.28.3" sheetId="17" r:id="rId5"/>
-    <sheet name="W20.27.1" sheetId="16" r:id="rId6"/>
-    <sheet name="W20.25.5" sheetId="15" r:id="rId7"/>
-    <sheet name="W20.25.1" sheetId="14" r:id="rId8"/>
-    <sheet name="W20.24.4" sheetId="13" r:id="rId9"/>
-    <sheet name="W20.24.2" sheetId="12" r:id="rId10"/>
-    <sheet name="W20.24.1" sheetId="11" r:id="rId11"/>
-    <sheet name="W20.23.5" sheetId="10" r:id="rId12"/>
-    <sheet name="W20.23.3" sheetId="9" r:id="rId13"/>
-    <sheet name="W20.23.1" sheetId="8" r:id="rId14"/>
-    <sheet name="W20.22.5" sheetId="7" r:id="rId15"/>
-    <sheet name="W20.22.1" sheetId="6" r:id="rId16"/>
-    <sheet name="W20.21.5" sheetId="5" r:id="rId17"/>
-    <sheet name="W20.21.4" sheetId="4" r:id="rId18"/>
-    <sheet name="W20.21.1" sheetId="3" r:id="rId19"/>
-    <sheet name="W20.20.4" sheetId="2" r:id="rId20"/>
-    <sheet name="W20.20.1" sheetId="1" r:id="rId21"/>
+    <sheet name="W20.35.2" sheetId="23" r:id="rId1"/>
+    <sheet name="W20.34.2" sheetId="22" r:id="rId2"/>
+    <sheet name="W20.32.2" sheetId="21" r:id="rId3"/>
+    <sheet name="W20.31.3" sheetId="20" r:id="rId4"/>
+    <sheet name="W20.30.1" sheetId="19" r:id="rId5"/>
+    <sheet name="W20.29.1" sheetId="18" r:id="rId6"/>
+    <sheet name="W20.28.3" sheetId="17" r:id="rId7"/>
+    <sheet name="W20.27.1" sheetId="16" r:id="rId8"/>
+    <sheet name="W20.25.5" sheetId="15" r:id="rId9"/>
+    <sheet name="W20.25.1" sheetId="14" r:id="rId10"/>
+    <sheet name="W20.24.4" sheetId="13" r:id="rId11"/>
+    <sheet name="W20.24.2" sheetId="12" r:id="rId12"/>
+    <sheet name="W20.24.1" sheetId="11" r:id="rId13"/>
+    <sheet name="W20.23.5" sheetId="10" r:id="rId14"/>
+    <sheet name="W20.23.3" sheetId="9" r:id="rId15"/>
+    <sheet name="W20.23.1" sheetId="8" r:id="rId16"/>
+    <sheet name="W20.22.5" sheetId="7" r:id="rId17"/>
+    <sheet name="W20.22.1" sheetId="6" r:id="rId18"/>
+    <sheet name="W20.21.5" sheetId="5" r:id="rId19"/>
+    <sheet name="W20.21.4" sheetId="4" r:id="rId20"/>
+    <sheet name="W20.21.1" sheetId="3" r:id="rId21"/>
+    <sheet name="W20.20.4" sheetId="2" r:id="rId22"/>
+    <sheet name="W20.20.1" sheetId="1" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6612" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6886" uniqueCount="3659">
   <si>
     <t>Release Notes</t>
   </si>
@@ -19142,6 +19144,796 @@
   </si>
   <si>
     <t>8910_MODULE_V1_3_W20.32.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1379746</t>
+  </si>
+  <si>
+    <t>辅助机AndroidR Sharkl5 Pro通过SPP APK连接DUT偶见连接失败</t>
+  </si>
+  <si>
+    <t>1379935</t>
+  </si>
+  <si>
+    <t>测试机通过SPP APK反复连接8910DM，偶见SPP连接失败</t>
+  </si>
+  <si>
+    <t>1379885</t>
+  </si>
+  <si>
+    <t>1379743</t>
+  </si>
+  <si>
+    <t>1389860</t>
+  </si>
+  <si>
+    <t>GSM/CAT1切换稳定性测试死机CP PANIC: -&gt;CP assert:LINE:1955&lt;--&gt;FILE:drv_xcv_gsm.c&lt;--&gt;Indication:IRAT LTE2GSM RF CLASH, irat_error_flag = 20,t1=153,t2=15100,t3=1&lt;-</t>
+  </si>
+  <si>
+    <t>1390321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rr在等待UplinkRldelay定时器超时的时候，收到了mm的abort请求，发起tbf release
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rr在等待UplinkRldelay定时器超时的时候，收到了mm的abort请求，因为之前收到了pcco，L3Msg已经是空的了，导致没办法判定是gprs还是gsm abort，错误的发起了gsm abort
+</t>
+  </si>
+  <si>
+    <t>GSM/CAT1切换稳定性测试死机gsm的txon状态下，打开了LTE的rxon，导致冲突</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CHLD执行的接听需要使用CHLD的处理方式，不能直接调用CFW_CcAcceptSpeechCall的接口
+</t>
+  </si>
+  <si>
+    <t>AT+CHLD=2    //之后不返回信息，且无法在发送任何AT指令，只能重启设备。</t>
+  </si>
+  <si>
+    <t>SPCSS00712920</t>
+  </si>
+  <si>
+    <t>1381230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、CMCC_SIM卡开机注册
+2、开启基站定位邻区周期性上报功能
+3、热插拔更换未CUCC_SIM卡
+4、UE成功注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、收到CCED命令时，无条件判断LBS中小区是否已长时间未更新测量值，如果是，则删除这样的小区。2、读失败后的小区不再尝试，直到读取完所有其他小区，再尝试失败的小区。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、换卡前保存在LBS信息中邻区，换卡后不能正常删除；2、小区读取失败时，不能继续读取下个邻区，会一直读取失败的小区。
+</t>
+  </si>
+  <si>
+    <t>开启基站定位邻区上报，热插拔更换SIM卡后，长时间上报之前运营商的邻区信息</t>
+  </si>
+  <si>
+    <t>1386147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只有这里的测试模式和时隙配置才会出现.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已知问题,威尔克实验室的仪器配置不符合协议,需要UE进行兼容处理.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+已知问题,威尔克实验室的仪器配置不符合协议,需要UE进行兼容处理.
+</t>
+  </si>
+  <si>
+    <t>GSM射频性能测试仪表报错</t>
+  </si>
+  <si>
+    <t>SPCSS00716771</t>
+  </si>
+  <si>
+    <t>1388227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GSM/CAT1切换稳定性压力测试
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 现在不明确具体原因修改了大片的MEM，采用监控PSRAM的机制，对于模块modern，监控另外一张空闲卡的MEM，便于后续复现，可分析第一现场数据。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 由于存在大片的MEM被修改了导致出现cp abort问题
+</t>
+  </si>
+  <si>
+    <t>GSM/CAT1切换稳定性测试死机CP PANIC: CP Abort,exception at 0x00829eda</t>
+  </si>
+  <si>
+    <t>1381871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在novolte分支支持loopback测试
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在裁剪volte时，把loopback功能进行了裁剪
+</t>
+  </si>
+  <si>
+    <t>不支持VOLTE的版本也需要支持audio loopback功能</t>
+  </si>
+  <si>
+    <t>SPCSS00713250</t>
+  </si>
+  <si>
+    <t>1381856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 复测。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 终端在鉴权拒绝后，等待一段时间(5000ms到20000ms之间随机)后，再尝试重新发起注册，同时将尝试次数扩大到10次。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前测试中发现，多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时上电时候，出现连续鉴权失败。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>USIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在鉴权时候，认为网络发送的鉴权参数不正确，产生了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAC failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，后续网络发送鉴权拒绝给终端，连续三次后进入无卡状态。单独开机无存在此问题。
+原因分析：由于鉴权参数来源于核心网络，终端无法处理该异常。定位为网络兼容性问题，进行规避处理。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关机压力测试，低概率出现不注网</t>
+  </si>
+  <si>
+    <t>SPCSS00712887</t>
+  </si>
+  <si>
+    <t>1381212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 无
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 执行USIM pin2码命令前，先选择IMSI，保证当前USIM目录是ADF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查询USIM的PIN2剩余次数返回6A 88
+</t>
+  </si>
+  <si>
+    <t>插入SIM卡,开机，用AT+CPIN?返回NO SIM的问题</t>
+  </si>
+  <si>
+    <t>SPCSS00711678</t>
+  </si>
+  <si>
+    <t>1378871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需验证secure boot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efuse 添加efuse打开操作，同时更新efsue驱动
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efuse ap掉rom中的代码去读efsue前没有打开efuse
+</t>
+  </si>
+  <si>
+    <t>V1.3基线 通过port1 以hex形式发 diag 指令 7E 00 00 00 00 08 00 05 22 7E 使能secureboot 必现dump ，V1.2如此操作 没有问题能够使能 secureboot</t>
+  </si>
+  <si>
+    <t>SPCSS00711870</t>
+  </si>
+  <si>
+    <t>1379281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过调用iBeacon接口发送iBeacon包。然后通过nRF connect查看。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加iBeacon的接口
+</t>
+  </si>
+  <si>
+    <t>添加iBeacon的接口</t>
+  </si>
+  <si>
+    <t>1378177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测试固定功率放射 WIFI beacon，测试收到的RSSI 是否准确
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 修改射频配置；修改软件补偿的值；改为中断方式处理 wifi scan。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 射频寄存器配置不对；用轮询方式浪费 CPU 时间并且会导致漏包
+</t>
+  </si>
+  <si>
+    <t>wifi_scan RX射频指标AT指令读取RSSI不准</t>
+  </si>
+  <si>
+    <t>SPCSS00707514</t>
+  </si>
+  <si>
+    <t>1371213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 同样复测；且这个改动延后了AP再次睡眠的时间，确认修改没有增加功耗
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当AP给CP发了IPC中断后，等到下次CP再发出睡眠全球后再进入睡眠
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当AP给CP发了IPC中断后立即进入睡眠，备份SRAM时里面的IPC共享内存指针是CP更新前的，CP处理IPC中断更新读指针后立即睡眠，如果IDLE模块已经开始了掉电流程；再醒来时恢复SRAM的内容，没有恢复成最后的状态。
+</t>
+  </si>
+  <si>
+    <t>通信稳定性测试死机CP PANIC: -&gt;CP assert:LINE:233&lt;--&gt;FILE:md_ipc_func.c&lt;--&gt;Indication:write ipc no avail: 15&lt;-</t>
+  </si>
+  <si>
+    <t>1385557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+这个问题按下面过程比较容易出现异常：
+1. AT+CFUN=0  进入飞行模式，在飞行模式下不会被modem频繁唤醒，容易出现问题
+2. AT+CSCLK=2  使能睡眠
+3. 插拔USB，观察USB识别
+在第一次拔出USB时，首先是USB收到suspend中断，因为没有收到charge off中断，因此软件会认为是host发出了suspend请求，很快平台会进入32K睡眠。进入32K睡眠时，hwp_pwrctrl-&gt;pwr_hwen中的ap_pwr_en，aon_lp_pon_en被设置为0，现有的代码在退出32K睡眠时没有再写回为1。然后收到charge off中断，正常处理后继续睡眠。再次插入时，收到charge on中断，启动800ms timer，再次睡眠。之后会suspend abort，这个时候timer4计时明显不对，但由于时suspend abort，不会从idle_ref_32k恢复timer4，导致系统时间不对，进而影响了timer的处理。实际观察要1分钟以上的时间，才能处理800ms的超时处理。
+退出32K睡眠时把ap_pwr_en，aon_lp_pon_en被设置为1，流程能够正常。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在退出32K睡眠时恢复hwp_pwrctrl-&gt;pwr_hwen寄存器
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 为了支持USB suspend/resume的32K睡眠流程中没有恢复hwp_pwrctrl-&gt;pwr_hwen寄存器。
+</t>
+  </si>
+  <si>
+    <t>在飞行模式使能睡眠时插拔USB概率性不识别</t>
+  </si>
+  <si>
+    <t>1389989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.辅助机安装BLE调试宝 APK;
+2.辅助机搜索到DUT BLE后点击连接；
+3.DUT发送数据给辅助机-&gt;观察
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">去掉A2DP
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本阶段不支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A2DP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，不支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A2DP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">业务共存
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助机ROC1+ORCA通过SPP APK连接DUT偶见连接失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.辅助机安装nRF APK;
+2.测试机端通过AT命令反复连接断开与辅助机的BLE连接-&gt;观察
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在BLE SCAN过程中发送connect，停止BLE SCAN后再次发送connect
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加AT的异常保护过程
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在BLE SCAN过程中发送connect命令，返回error，停止BLE SCAN后再次发送connect命令后出现异常
+</t>
+  </si>
+  <si>
+    <t>测试机通过nRF APK反复连接断开辅助机AndroidR Sharkl5Pro，偶见测试机点击断开时辅助机端连接没有断开，测试机端AT命令无法再次执行</t>
+  </si>
+  <si>
+    <t>1380023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私有地址的定向广播变成错误的公有地址
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试定向广播
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改地址类型从AT下发的参数中取
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host下发的HCI参数中地址类型固定为public地址
+</t>
+  </si>
+  <si>
+    <t>私有地址定向广播bug</t>
+  </si>
+  <si>
+    <t>1385753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改判断buffer的逻辑，只要读取偏移量加上本次读取大小不大于buffer总长度，则直接进行buffer拷贝
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在读取ftp数据的时候，对于buffer的临界值判断有误，导致读取失败
+</t>
+  </si>
+  <si>
+    <t>数据缓存区数据没有读完就上报close</t>
+  </si>
+  <si>
+    <t>SPCSS00716376</t>
+  </si>
+  <si>
+    <t>1387633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client功能开发
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加client功能接口
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gatt client 功能开发</t>
+  </si>
+  <si>
+    <t>1379676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加poc流程，移植通话过程中的消噪算法等模块
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原录音和播放过程中只有EQ和DRC处理，没有消噪处理
+</t>
+  </si>
+  <si>
+    <r>
+      <t>8910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对讲机应用对讲过程中底噪明显</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPCSS00703136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有损音频文件测试
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解码出错时，往后继续解码新数据，直至文件EOF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解码出错时，直接返回出错结束解码
+</t>
+  </si>
+  <si>
+    <t>memory播放AMRNB文件，音频流中如果有坏帧，音频会解码失败终止播放</t>
+  </si>
+  <si>
+    <t>SPCSS00711881</t>
+  </si>
+  <si>
+    <t>1379301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">纠正解析错误
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">播放包含扩展块的.wav音频文件时候解析错误导致死循环
+</t>
+  </si>
+  <si>
+    <t>播放包含扩展块的.wav音频文件时候解析错误导致死循环</t>
+  </si>
+  <si>
+    <t>1384630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio player
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加包含扩展块的部分偏移跳转
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wav文件解析包含扩展块的部分偏移计算错误
+</t>
+  </si>
+  <si>
+    <t>无法播放大的音频文件</t>
+  </si>
+  <si>
+    <t>SPCSS00713434</t>
+  </si>
+  <si>
+    <t>1382201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改code提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbat 耳机spk/mic功能开发
+</t>
+  </si>
+  <si>
+    <t>耳机spk/mic功能开发（指令见"description"）</t>
+  </si>
+  <si>
+    <t>1381947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1) 修改代码：CID:264455, CID:264463, CID:264458, CID:264456
+2) 其他忽略
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fix coverity warning
+</t>
+  </si>
+  <si>
+    <t>-CID:{325145;264464;264442;264451;37101;37247;264448;264447;264445;264455;264461;264463;264458;264457;264456},File:/bbapp/components/audio/core/*</t>
+  </si>
+  <si>
+    <t>1345164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBAT有关闭充电的命令
+</t>
+  </si>
+  <si>
+    <t>进BBAT模式后，把charger的默认状态改为关闭（如果默认充电开启，会影响检测power on current）</t>
+  </si>
+  <si>
+    <t>1385210</t>
+  </si>
+  <si>
+    <t>8910_MODULE_V1_3_W20.34.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">音频调试
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音频调试，tone音源优化
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音频调试，tone音需要优化
+</t>
+  </si>
+  <si>
+    <t>ZP003测试机呼叫其他（任何）机器，等待过程中有震膜音。</t>
+  </si>
+  <si>
+    <t>SPCSS00715461</t>
+  </si>
+  <si>
+    <t>1385998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在POP通道上加上和本地录音流程一样的方法消除pop音
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP通道在录音开始时有pop音
+</t>
+  </si>
+  <si>
+    <t>V1.3_W20.31+POC通道patch，录音时会产生一个大的pa的一声。</t>
+  </si>
+  <si>
+    <t>SPCSS00720886</t>
+  </si>
+  <si>
+    <t>1395187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加该GSM_HB_L port口的DC自校准
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Band34走GSM通路，LO leakage指标临界，RF开机自校准未对GSM_HB_L的端口进行DC校准
+</t>
+  </si>
+  <si>
+    <t>测试fail；测试值：-24.10，标准：＜-24.2；</t>
+  </si>
+  <si>
+    <t>SPCSS00715398</t>
+  </si>
+  <si>
+    <t>1385886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 重新测试相同 case
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在 fifo 数量不够的情况下不同端点分时复用 fifo。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  芯片不支持tx fifo 共享，但是软件使用的时候最后两个串口使用了 fifo 0 和 控制传输的 tx 共享了一个硬件 fifo。
+</t>
+  </si>
+  <si>
+    <t>FTP下载2MB文件，仅在抓取log情况下dump；log信息以提供；</t>
+  </si>
+  <si>
+    <t>SPCSS00715033</t>
+  </si>
+  <si>
+    <t>1385222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用critical禁止多任务访问临界区，发送完硬件数据后保证txie被打开
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在一定条件下（硬件fifo剩余128 软件fifo没有数据）关闭tx中断，后面处理机制中有情况没有打开导致无法发送数据
+</t>
+  </si>
+  <si>
+    <t>满波特率双向传输数据一段时间，网络端下发数据，串口接收不到</t>
+  </si>
+  <si>
+    <t>SPCSS00712465</t>
+  </si>
+  <si>
+    <t>1380395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测试 usb 虚拟出的多个设备同时使用
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改上述两个问题
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> controller in端点数多于 txfifo 数，所以如果同时使用的 txfifo 多于 txfifo 数需要考虑端点分时复用；usb ether tx request 的申请释放逻辑不安全，在某些临界条件可能会导致资源泄漏，以后就分配不到 request了。
+</t>
+  </si>
+  <si>
+    <t>8910切换usbmode到rndis模式，usb掉口</t>
+  </si>
+  <si>
+    <t>SPCSS00708813</t>
+  </si>
+  <si>
+    <t>1373809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.辅助机安装nRF APK;
+2.测试机BLE ADV广播间隔时间设置
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT不需要做这样的变换处理
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT在处理时将slot转变为秒单位了
+</t>
+  </si>
+  <si>
+    <t>测试机BLE ADV广播间隔时间设置不准确</t>
+  </si>
+  <si>
+    <t>1392728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.DUT蓝牙默认关闭，使用命名开启蓝牙；
+2.使用AT命令搜索BLE设备AT+BLESCAN=SETSCANENABLE,1，然后再停止AT+BLESCAN=SETSCANENABLE,0-&gt;反复操作几次，观察
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开读取32k时钟，但是不作打印
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屏蔽了一个读取32k时钟并打印的代码
+</t>
+  </si>
+  <si>
+    <t>DUT开启蓝牙后执行AT命令一定概率必现AT命令卡死</t>
+  </si>
+  <si>
+    <t>1393063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们8910做master的时候 ，跟客户滴滴的盒子做完连接，对端会
+用 “L2CAP Connection Parameter Update Request”请求update参数；8910收到后直接回accept，却没有让controller update参数；导致盒子在3分钟过后，因为参数一直不更新而来主动与我们断开连接；
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加更新动作；
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对端请求参数更新，我们接受了却没有发起参数更新的动作；
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8910 as ble master,slave send "Connection Parameter Update Request",8910 do nothing</t>
+  </si>
+  <si>
+    <t>1388008</t>
+  </si>
+  <si>
+    <t>8910_MODULE_V1_3_W20.35.2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19625,10 +20417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19653,7 +20445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>3477</v>
+        <v>3658</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -19679,7 +20471,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <v>44047</v>
+        <v>44068</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -19765,465 +20557,237 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="48.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>3476</v>
+        <v>3601</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>3475</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3474</v>
+        <v>3600</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3599</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>3473</v>
+        <v>3598</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3472</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>3471</v>
+        <v>3657</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>3470</v>
+        <v>3656</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3469</v>
+        <v>3655</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3468</v>
+        <v>3654</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>3467</v>
+        <v>3359</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>3466</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3465</v>
-      </c>
+        <v>3652</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>3464</v>
+        <v>3651</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3463</v>
+        <v>3650</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>3462</v>
+        <v>3649</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3461</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3648</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>3460</v>
+        <v>3647</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>3459</v>
+        <v>3646</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3458</v>
+        <v>3645</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3457</v>
+        <v>3644</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1378</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>3456</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>3642</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3641</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>3455</v>
+        <v>3640</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3454</v>
+        <v>3639</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>3453</v>
+        <v>3638</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3452</v>
-      </c>
+        <v>3637</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>3636</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3635</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>3450</v>
+        <v>3634</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3449</v>
+        <v>3633</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3448</v>
+        <v>3632</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>3631</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3630</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>3447</v>
+        <v>3629</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3446</v>
+        <v>3628</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3445</v>
+        <v>3627</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>3444</v>
-      </c>
+        <v>3626</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>3443</v>
+        <v>2647</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>3442</v>
+        <v>2646</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3441</v>
+        <v>2645</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3440</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3439</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>3438</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>3625</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3624</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>3437</v>
+        <v>3623</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3436</v>
+        <v>3622</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>3435</v>
+        <v>3621</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3434</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>3620</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3619</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>3432</v>
+        <v>3618</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3431</v>
+        <v>3617</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>3431</v>
+        <v>3616</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>3430</v>
+        <v>3615</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3429</v>
+        <v>3614</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3428</v>
+        <v>3613</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3427</v>
+        <v>3612</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3426</v>
+        <v>3611</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>576</v>
+        <v>3610</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>3425</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>3424</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>3423</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3422</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3421</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>3420</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3419</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>3418</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>3417</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>3415</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>3414</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>3413</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3412</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3411</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>2717</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>2716</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>2715</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>3410</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3409</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>3408</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3406</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>3404</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>3403</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>3402</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>2684</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>3401</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>3395</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -20233,11 +20797,1786 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43997</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43993</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="151.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -20727,7 +23066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -21190,7 +23529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -21720,7 +24059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -22173,7 +24512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -22754,7 +25093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
@@ -23713,7 +26052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -24358,7 +26697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
@@ -25847,7 +28186,776 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>44061</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3602</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3598</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3593</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3588</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3582</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>1362425</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="170.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>1321262</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
@@ -27021,7 +30129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -27530,1411 +30638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="7" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3393</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20">
-        <v>44041</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3392</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1308635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>3391</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3389</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>3387</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>3386</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>3385</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3384</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3384</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>3383</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>3382</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3381</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3380</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3379</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>3376</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3375</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3374</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3373</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>3372</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>3371</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3370</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3369</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>3367</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>3366</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>3365</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>3361</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>3132</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3131</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3130</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>3357</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3354</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>3353</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3351</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3351</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3350</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>3349</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3346</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3039</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>3345</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>3344</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>3343</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3342</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="61.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>3340</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3339</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>3338</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3336</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>3335</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>3334</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3333</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>3330</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>3329</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3328</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3327</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>3326</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3325</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>3322</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>3318</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>3317</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3316</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>3315</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>3314</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>3311</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>3310</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3309</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>3308</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3305</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>3304</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3303</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3302</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>3301</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>3300</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3299</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3298</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>3297</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>3296</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>3295</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>3292</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>3291</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3290</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>2987</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>3287</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3286</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>3285</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>3284</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>3283</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3282</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>3281</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>3280</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3279</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>3279</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>3278</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>3277</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3274</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3273</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3272</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>3272</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3270</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3269</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>2397</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>2393</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>3267</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>3264</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>3262</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3260</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3259</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>3257</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>3256</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3254</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>3252</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3250</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3249</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>3247</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>3246</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3244</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>3243</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3242</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3241</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3239</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>3237</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3236</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3235</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>3233</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>3231</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>3107</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3026</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>3106</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>2942</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>2941</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>2940</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>3230</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>3229</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>3226</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>3221</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3220</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>3219</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>3216</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>3215</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>3213</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>3212</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3212</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3208</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3208</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
-        <v>3205</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3204</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3203</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3202</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>3199</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3198</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3197</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>3195</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>3194</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>3193</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>3192</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3189</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3188</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>3185</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
-        <v>3182</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>3181</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>3180</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>2946</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>2945</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>2943</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>3178</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3177</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3176</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>2935</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>2933</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>3174</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>3172</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>3170</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G199"/>
   <sheetViews>
@@ -32507,7 +34211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G174"/>
   <sheetViews>
@@ -35947,6 +37651,2024 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>44047</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3461</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>44041</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1308635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="61.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37317,7 +41039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
@@ -38853,7 +42575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
@@ -40638,7 +44360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G94"/>
   <sheetViews>
@@ -42409,7 +46131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
@@ -43516,1780 +47238,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="7" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20">
-        <v>43997</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>1879</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1871</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>1820</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="7" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20">
-        <v>43993</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="151.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>